--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>946341.7768390215</v>
+        <v>972542.2368228117</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2460204.061553705</v>
+        <v>698313.6830760717</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7473158.256543893</v>
+        <v>8106386.644181513</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -665,19 +667,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>172.1717765216055</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -725,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>353.7760061422822</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +822,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.466802178090949</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>51.58543740429442</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,10 +870,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>165.4434431853894</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>414.9905257410462</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1060,7 +1062,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1069,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>134.1684869415209</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>106.1625082751652</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>389.1374204367706</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>91.23698399075032</v>
       </c>
       <c r="D8" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1196,10 +1198,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1297,19 +1299,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>159.8871761049701</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1348,16 +1350,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>107.6028387147875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1375,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>221.465566047739</v>
       </c>
       <c r="I11" t="n">
-        <v>30.5971480005166</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,16 +1426,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1528,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1573,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>72.88989275927041</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1607,25 +1609,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>400.5382066800755</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>110.744284008883</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1670,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1765,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>70.99459090292632</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378995526348206</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -1783,7 +1785,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453622</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2008,13 +2010,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>175.6665542587261</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2068,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>107.082020806836</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2239,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>57.29215110549234</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>122.9177036806385</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>133.9073134702962</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
@@ -2527,22 +2529,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>218.7757544134941</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2716,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>51.58543740429417</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2767,19 +2769,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>248.5173679239891</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3187,16 +3189,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>5.041219488028854</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>8.209635605837954</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474295</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3430,19 +3432,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
         <v>277.3826040146988</v>
@@ -3484,13 +3486,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>173.2846230762509</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3569,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>156.3950745845546</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271512</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3742,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>405.3264722920723</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>221.465566047739</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>175.6665542587261</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>45.2212556743622</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3983,16 +3985,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>244.3824019542506</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>29.89949249262446</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4135,19 +4137,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>103.8121020651558</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
@@ -4198,7 +4200,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>127.1775712042722</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>731.6445158468521</v>
+        <v>427.7981182481856</v>
       </c>
       <c r="C2" t="n">
-        <v>708.7841899005563</v>
+        <v>404.9377923018898</v>
       </c>
       <c r="D2" t="n">
-        <v>689.5319731259606</v>
+        <v>385.6855755272941</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5550332738181</v>
+        <v>363.7490397155557</v>
       </c>
       <c r="F2" t="n">
-        <v>89.64414789845907</v>
+        <v>342.66526194536</v>
       </c>
       <c r="G2" t="n">
-        <v>89.34548952831176</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H2" t="n">
-        <v>89.34548952831176</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K2" t="n">
-        <v>728.2502693850971</v>
+        <v>572.9146475090616</v>
       </c>
       <c r="L2" t="n">
-        <v>1402.051920498411</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M2" t="n">
-        <v>1474.987448089748</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="N2" t="n">
-        <v>1474.987448089748</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O2" t="n">
-        <v>1474.987448089748</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P2" t="n">
-        <v>2148.789099203062</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U2" t="n">
-        <v>2722.430913589148</v>
+        <v>1966.556343058788</v>
       </c>
       <c r="V2" t="n">
-        <v>2364.941498715398</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W2" t="n">
-        <v>1968.550149015745</v>
+        <v>1212.675578485385</v>
       </c>
       <c r="X2" t="n">
-        <v>1556.830150183492</v>
+        <v>800.955579653132</v>
       </c>
       <c r="Y2" t="n">
-        <v>1151.492880138382</v>
+        <v>443.6060784993115</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K3" t="n">
-        <v>54.44861827178296</v>
+        <v>595.1637600336855</v>
       </c>
       <c r="L3" t="n">
-        <v>515.5329466256644</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M3" t="n">
-        <v>515.5329466256644</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N3" t="n">
-        <v>1189.334597738979</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O3" t="n">
-        <v>1863.136248852293</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P3" t="n">
-        <v>1863.136248852293</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>802.0514800952428</v>
+        <v>268.5772905989117</v>
       </c>
       <c r="C4" t="n">
-        <v>630.0789169741588</v>
+        <v>96.60472747782771</v>
       </c>
       <c r="D4" t="n">
-        <v>466.7621441009295</v>
+        <v>96.60472747782771</v>
       </c>
       <c r="E4" t="n">
-        <v>464.2704247291205</v>
+        <v>96.60472747782771</v>
       </c>
       <c r="F4" t="n">
-        <v>464.2704247291205</v>
+        <v>96.60472747782771</v>
       </c>
       <c r="G4" t="n">
-        <v>298.0134550233526</v>
+        <v>96.60472747782771</v>
       </c>
       <c r="H4" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924748</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R4" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S4" t="n">
-        <v>2017.687984891219</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T4" t="n">
-        <v>2017.687984891219</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U4" t="n">
-        <v>2017.687984891219</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V4" t="n">
-        <v>1735.976517499248</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W4" t="n">
-        <v>1461.124113671761</v>
+        <v>927.6499241754302</v>
       </c>
       <c r="X4" t="n">
-        <v>1218.560217117566</v>
+        <v>685.0860276212353</v>
       </c>
       <c r="Y4" t="n">
-        <v>992.2174488073085</v>
+        <v>458.7432593109774</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1128.035865546505</v>
+        <v>562.9251824419335</v>
       </c>
       <c r="C5" t="n">
-        <v>1105.17553960021</v>
+        <v>540.0648564956377</v>
       </c>
       <c r="D5" t="n">
-        <v>681.8829187852098</v>
+        <v>520.812639721042</v>
       </c>
       <c r="E5" t="n">
-        <v>514.7683297090589</v>
+        <v>498.8761039093037</v>
       </c>
       <c r="F5" t="n">
-        <v>89.64414789845907</v>
+        <v>79.69375467592363</v>
       </c>
       <c r="G5" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K5" t="n">
-        <v>728.2502693850971</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="L5" t="n">
-        <v>1402.051920498411</v>
+        <v>572.9146475090616</v>
       </c>
       <c r="M5" t="n">
-        <v>1402.051920498411</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N5" t="n">
-        <v>2048.629262475834</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="O5" t="n">
-        <v>2048.629262475834</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S5" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T5" t="n">
-        <v>2722.430913589148</v>
+        <v>2003.985681507009</v>
       </c>
       <c r="U5" t="n">
-        <v>2722.430913589148</v>
+        <v>1745.630772103422</v>
       </c>
       <c r="V5" t="n">
-        <v>2364.941498715398</v>
+        <v>1388.141357229671</v>
       </c>
       <c r="W5" t="n">
-        <v>2364.941498715398</v>
+        <v>991.7500075300179</v>
       </c>
       <c r="X5" t="n">
-        <v>1953.221499883145</v>
+        <v>580.0300086977652</v>
       </c>
       <c r="Y5" t="n">
-        <v>1547.884229838035</v>
+        <v>578.7331426930596</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>51.94486801115936</v>
       </c>
       <c r="J6" t="n">
-        <v>326.146107551374</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>725.1891208761992</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="L6" t="n">
-        <v>725.1891208761992</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="M6" t="n">
-        <v>725.1891208761992</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="N6" t="n">
-        <v>725.1891208761992</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="O6" t="n">
-        <v>1398.990771989513</v>
+        <v>838.3748437825399</v>
       </c>
       <c r="P6" t="n">
-        <v>1398.990771989513</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1137.62974079602</v>
+        <v>717.9063049747683</v>
       </c>
       <c r="C7" t="n">
-        <v>965.6571776749358</v>
+        <v>545.9337418536843</v>
       </c>
       <c r="D7" t="n">
-        <v>802.3404048017065</v>
+        <v>382.616968980455</v>
       </c>
       <c r="E7" t="n">
-        <v>636.1321989545601</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>464.2704247291205</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1774.348637117119</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.824912933765</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1638.824912933765</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="W7" t="n">
-        <v>1363.972509106278</v>
+        <v>1376.978938551287</v>
       </c>
       <c r="X7" t="n">
-        <v>1363.972509106278</v>
+        <v>1134.415041997092</v>
       </c>
       <c r="Y7" t="n">
-        <v>1137.62974079602</v>
+        <v>908.072273686834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>174.7770042012846</v>
+        <v>1446.246066841292</v>
       </c>
       <c r="C8" t="n">
-        <v>151.9166782549888</v>
+        <v>1354.087497153665</v>
       </c>
       <c r="D8" t="n">
-        <v>132.6644614803932</v>
+        <v>930.7948763386659</v>
       </c>
       <c r="E8" t="n">
-        <v>110.7279256686548</v>
+        <v>908.8583405269275</v>
       </c>
       <c r="F8" t="n">
-        <v>89.64414789845907</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G8" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H8" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J8" t="n">
-        <v>127.3841458631196</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>801.1857969764337</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L8" t="n">
-        <v>801.1857969764337</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M8" t="n">
-        <v>801.1857969764337</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="N8" t="n">
-        <v>1474.987448089748</v>
+        <v>957.7672188505811</v>
       </c>
       <c r="O8" t="n">
-        <v>1474.987448089748</v>
+        <v>1100.603903091852</v>
       </c>
       <c r="P8" t="n">
-        <v>2148.789099203062</v>
+        <v>1651.26943807629</v>
       </c>
       <c r="Q8" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580473</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T8" t="n">
-        <v>2397.138048506922</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U8" t="n">
-        <v>2138.783139103334</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V8" t="n">
-        <v>1781.293724229584</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W8" t="n">
-        <v>1384.902374529931</v>
+        <v>1471.030487888972</v>
       </c>
       <c r="X8" t="n">
-        <v>973.1823756976778</v>
+        <v>1463.350893097124</v>
       </c>
       <c r="Y8" t="n">
-        <v>567.8451056525681</v>
+        <v>1462.054027092418</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>191.9280900693339</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693794</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="K9" t="n">
-        <v>54.44861827178296</v>
+        <v>201.1892506764432</v>
       </c>
       <c r="L9" t="n">
-        <v>515.5329466256644</v>
+        <v>751.8547856608812</v>
       </c>
       <c r="M9" t="n">
-        <v>1189.334597738979</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="N9" t="n">
-        <v>1863.136248852293</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1137.62974079602</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="C10" t="n">
-        <v>965.6571776749358</v>
+        <v>513.1134645001508</v>
       </c>
       <c r="D10" t="n">
-        <v>802.3404048017065</v>
+        <v>349.7966916269215</v>
       </c>
       <c r="E10" t="n">
-        <v>636.1321989545601</v>
+        <v>349.7966916269215</v>
       </c>
       <c r="F10" t="n">
-        <v>464.2704247291205</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924752</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2234.861645684911</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1991.522297910811</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U10" t="n">
-        <v>1711.337849411115</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V10" t="n">
-        <v>1711.337849411115</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W10" t="n">
-        <v>1436.485445583628</v>
+        <v>927.6499241754298</v>
       </c>
       <c r="X10" t="n">
-        <v>1436.485445583628</v>
+        <v>685.0860276212348</v>
       </c>
       <c r="Y10" t="n">
-        <v>1327.795709508086</v>
+        <v>685.0860276212348</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1214.462999296531</v>
+        <v>2429.413071721397</v>
       </c>
       <c r="C11" t="n">
-        <v>787.5622693098314</v>
+        <v>2002.512341734697</v>
       </c>
       <c r="D11" t="n">
-        <v>787.5622693098314</v>
+        <v>1579.219720919697</v>
       </c>
       <c r="E11" t="n">
-        <v>787.5622693098314</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F11" t="n">
-        <v>787.5622693098314</v>
+        <v>728.1185992569547</v>
       </c>
       <c r="G11" t="n">
-        <v>383.2232068992801</v>
+        <v>323.7795368464033</v>
       </c>
       <c r="H11" t="n">
-        <v>85.35482837331489</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>583.4696253673028</v>
+        <v>815.5852528544892</v>
       </c>
       <c r="L11" t="n">
-        <v>583.4696253673028</v>
+        <v>1745.210300473766</v>
       </c>
       <c r="M11" t="n">
-        <v>1257.271276480617</v>
+        <v>2356.615921272164</v>
       </c>
       <c r="N11" t="n">
-        <v>1931.072927593931</v>
+        <v>3332.866979758865</v>
       </c>
       <c r="O11" t="n">
-        <v>2604.874578707245</v>
+        <v>4178.011629909677</v>
       </c>
       <c r="P11" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="Q11" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S11" t="n">
-        <v>2618.063619462288</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T11" t="n">
-        <v>2397.138048506922</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U11" t="n">
-        <v>2397.138048506922</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V11" t="n">
-        <v>2039.648633633171</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W11" t="n">
-        <v>2039.648633633171</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X11" t="n">
-        <v>2039.648633633171</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y11" t="n">
-        <v>1634.311363588061</v>
+        <v>2849.261436012927</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>515.5329466256644</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L12" t="n">
-        <v>515.5329466256644</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.334597738979</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>1011.285504282143</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>847.9687314089136</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>681.7605255617672</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>199.8455131387142</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R13" t="n">
-        <v>2234.861645684911</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S13" t="n">
-        <v>2234.861645684911</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T13" t="n">
-        <v>2234.861645684911</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="U13" t="n">
-        <v>2234.861645684911</v>
+        <v>1783.131862998731</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.554778200025</v>
+        <v>1501.42039560676</v>
       </c>
       <c r="W13" t="n">
-        <v>1796.702374372538</v>
+        <v>1501.42039560676</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.138477818344</v>
+        <v>1427.794241304467</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>1201.451472994209</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>885.0096052755168</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>885.0096052755168</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>885.0096052755168</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>459.0326654233744</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>54.44861827178296</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K14" t="n">
-        <v>417.0520770886785</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="L14" t="n">
-        <v>417.0520770886785</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M14" t="n">
-        <v>801.1857969764337</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N14" t="n">
-        <v>1474.987448089748</v>
+        <v>2876.781500254682</v>
       </c>
       <c r="O14" t="n">
-        <v>1474.987448089748</v>
+        <v>3721.926150405494</v>
       </c>
       <c r="P14" t="n">
-        <v>2148.789099203062</v>
+        <v>4430.205429563422</v>
       </c>
       <c r="Q14" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U14" t="n">
-        <v>2464.07600418556</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>2106.58658931181</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>1710.195239612157</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>1710.195239612157</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
-        <v>1304.857969567047</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>371.7744341585812</v>
       </c>
       <c r="M15" t="n">
-        <v>728.2502693850971</v>
+        <v>819.4496289866299</v>
       </c>
       <c r="N15" t="n">
-        <v>1189.334597738979</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>468.6936525335126</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="C16" t="n">
-        <v>468.6936525335126</v>
+        <v>911.5169360224189</v>
       </c>
       <c r="D16" t="n">
-        <v>468.6936525335126</v>
+        <v>748.2001631491896</v>
       </c>
       <c r="E16" t="n">
-        <v>468.6936525335126</v>
+        <v>581.9919573020431</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>410.1301830766036</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2233.451358979292</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2063.316311498427</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>1819.976963724327</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>1258.08104783266</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="X16" t="n">
-        <v>695.0364208437705</v>
+        <v>983.2286440051728</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.6936525335126</v>
+        <v>983.2286440051728</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
         <v>1264.531207409474</v>
@@ -5504,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5516,49 +5518,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>102.3027134058285</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690843</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C18" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D18" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E18" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F18" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J18" t="n">
-        <v>374.0002026854196</v>
+        <v>3344.30754982181</v>
       </c>
       <c r="K18" t="n">
-        <v>374.0002026854196</v>
+        <v>3934.792476390149</v>
       </c>
       <c r="L18" t="n">
-        <v>374.0002026854196</v>
+        <v>3934.792476390149</v>
       </c>
       <c r="M18" t="n">
-        <v>1429.986740661465</v>
+        <v>3934.792476390149</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>3934.792476390149</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>3934.792476390149</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>4650.990193428647</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S18" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T18" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U18" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V18" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W18" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X18" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y18" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.4538236255814</v>
+        <v>941.9189991784957</v>
       </c>
       <c r="C19" t="n">
-        <v>437.4812605044974</v>
+        <v>769.9464360574117</v>
       </c>
       <c r="D19" t="n">
-        <v>274.1644876312681</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E19" t="n">
-        <v>274.1644876312681</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F19" t="n">
-        <v>102.3027134058285</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5701,22 +5703,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="T19" t="n">
-        <v>2105.274776921254</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U19" t="n">
-        <v>1825.090328421558</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="V19" t="n">
-        <v>1543.378861029587</v>
+        <v>1757.664925652886</v>
       </c>
       <c r="W19" t="n">
-        <v>1268.5264572021</v>
+        <v>1482.812521825399</v>
       </c>
       <c r="X19" t="n">
-        <v>1025.962560647905</v>
+        <v>1240.248625271204</v>
       </c>
       <c r="Y19" t="n">
-        <v>799.6197923376471</v>
+        <v>1132.084967890561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5837,22 @@
         <v>109.7493563677404</v>
       </c>
       <c r="L21" t="n">
-        <v>109.7493563677404</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M21" t="n">
-        <v>739.6560874287652</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q21" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1185.483835930065</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C22" t="n">
-        <v>1013.511272808982</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D22" t="n">
-        <v>850.1944999357522</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>2282.715740818957</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>2282.715740818957</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>2001.004273426986</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1726.151869599499</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>1601.992572952389</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>1375.649804642131</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,13 +5977,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
@@ -6005,19 +6007,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6069,25 +6071,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>985.454412532011</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C25" t="n">
-        <v>985.454412532011</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X25" t="n">
-        <v>985.454412532011</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.454412532011</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6312,10 +6314,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C28" t="n">
-        <v>154.4092158344085</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D28" t="n">
-        <v>102.3027134058285</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I28" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L28" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M28" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N28" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O28" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P28" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q28" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>4945.000622810561</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>4701.661275036461</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>4450.633630668795</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>4450.633630668795</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>4450.633630668795</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>4208.069734114601</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6479,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6546,16 +6548,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.582799500206</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6619,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6646,25 +6648,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>2019.640305074347</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>1744.78790124686</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6686,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K32" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.818868109901</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6780,19 +6782,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>692.7876399741681</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N33" t="n">
-        <v>692.7876399741681</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>373.4203922683193</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C34" t="n">
-        <v>368.3282513713204</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D34" t="n">
-        <v>368.3282513713204</v>
+        <v>606.6296631841824</v>
       </c>
       <c r="E34" t="n">
-        <v>368.3282513713204</v>
+        <v>440.4214573370359</v>
       </c>
       <c r="F34" t="n">
-        <v>368.3282513713204</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y34" t="n">
-        <v>563.5863609803849</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6953,19 +6955,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7026,7 +7028,7 @@
         <v>1158.289251381874</v>
       </c>
       <c r="N36" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>3270.011978872611</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>3098.039415751527</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U37" t="n">
-        <v>1832.396244838396</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V37" t="n">
-        <v>1550.684777446425</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W37" t="n">
-        <v>1550.684777446425</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X37" t="n">
-        <v>1550.684777446425</v>
+        <v>3575.310445450286</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>3348.967677140028</v>
       </c>
     </row>
     <row r="38">
@@ -7175,46 +7177,46 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>651.5495334576516</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>1581.174581076928</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>2585.460682495986</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>3561.711740982687</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1185.483835930065</v>
+        <v>3278.556980224821</v>
       </c>
       <c r="C40" t="n">
-        <v>1013.511272808982</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="D40" t="n">
-        <v>850.1944999357522</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="E40" t="n">
-        <v>683.9862940886057</v>
+        <v>3106.584417103737</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L40" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M40" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>5017.717281294594</v>
       </c>
       <c r="T40" t="n">
-        <v>2282.715740818957</v>
+        <v>4774.377933520494</v>
       </c>
       <c r="U40" t="n">
-        <v>2002.531292319261</v>
+        <v>4494.193485020798</v>
       </c>
       <c r="V40" t="n">
-        <v>2002.531292319261</v>
+        <v>4212.482017628827</v>
       </c>
       <c r="W40" t="n">
-        <v>1844.55646950658</v>
+        <v>3937.62961380134</v>
       </c>
       <c r="X40" t="n">
-        <v>1601.992572952385</v>
+        <v>3695.065717247145</v>
       </c>
       <c r="Y40" t="n">
-        <v>1375.649804642131</v>
+        <v>3468.722948936887</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>868.2083597652356</v>
+        <v>2429.413071721397</v>
       </c>
       <c r="C41" t="n">
-        <v>458.7876806823343</v>
+        <v>2002.512341734697</v>
       </c>
       <c r="D41" t="n">
-        <v>458.7876806823343</v>
+        <v>1579.219720919697</v>
       </c>
       <c r="E41" t="n">
-        <v>458.7876806823343</v>
+        <v>1153.242781067554</v>
       </c>
       <c r="F41" t="n">
-        <v>458.7876806823343</v>
+        <v>728.1185992569547</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>323.7795368464033</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>54.44861827178296</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="K41" t="n">
-        <v>728.2502693850971</v>
+        <v>462.6804036958857</v>
       </c>
       <c r="L41" t="n">
-        <v>728.2502693850971</v>
+        <v>1013.800675230825</v>
       </c>
       <c r="M41" t="n">
-        <v>918.7421318583365</v>
+        <v>2018.086776649883</v>
       </c>
       <c r="N41" t="n">
-        <v>918.7421318583365</v>
+        <v>2994.337835136584</v>
       </c>
       <c r="O41" t="n">
-        <v>1592.543782971651</v>
+        <v>3839.482485287396</v>
       </c>
       <c r="P41" t="n">
-        <v>2266.345434084965</v>
+        <v>4547.761764445324</v>
       </c>
       <c r="Q41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>4899.479949822648</v>
       </c>
       <c r="T41" t="n">
-        <v>2501.505342633781</v>
+        <v>4678.55437886728</v>
       </c>
       <c r="U41" t="n">
-        <v>2501.505342633781</v>
+        <v>4420.199469463692</v>
       </c>
       <c r="V41" t="n">
-        <v>2501.505342633781</v>
+        <v>4062.710054589942</v>
       </c>
       <c r="W41" t="n">
-        <v>2105.113992934128</v>
+        <v>3666.318704890289</v>
       </c>
       <c r="X41" t="n">
-        <v>1693.393994101875</v>
+        <v>3254.598706058036</v>
       </c>
       <c r="Y41" t="n">
-        <v>1288.056724056766</v>
+        <v>2849.261436012927</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>690.5618714473297</v>
       </c>
       <c r="L42" t="n">
-        <v>515.5329466256644</v>
+        <v>690.5618714473297</v>
       </c>
       <c r="M42" t="n">
-        <v>1189.334597738979</v>
+        <v>690.5618714473297</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.136248852293</v>
+        <v>1779.8768179202</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>561.5997284915359</v>
+        <v>607.228055098743</v>
       </c>
       <c r="C43" t="n">
-        <v>389.6271653704518</v>
+        <v>435.255491977659</v>
       </c>
       <c r="D43" t="n">
-        <v>226.3103924972226</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E43" t="n">
-        <v>226.3103924972226</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2110.354924811254</v>
       </c>
       <c r="T43" t="n">
-        <v>2057.420681787208</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U43" t="n">
-        <v>1777.236233287513</v>
+        <v>1586.831128537458</v>
       </c>
       <c r="V43" t="n">
-        <v>1495.524765895541</v>
+        <v>1541.153092502748</v>
       </c>
       <c r="W43" t="n">
-        <v>1220.672362068054</v>
+        <v>1266.300688675261</v>
       </c>
       <c r="X43" t="n">
-        <v>978.1084655138595</v>
+        <v>1023.736792121067</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.7656972036016</v>
+        <v>797.3940238108087</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1151.492880138382</v>
+        <v>2503.578858279949</v>
       </c>
       <c r="C44" t="n">
-        <v>724.5921501516823</v>
+        <v>2076.678128293249</v>
       </c>
       <c r="D44" t="n">
-        <v>301.2995293366826</v>
+        <v>1653.385507478249</v>
       </c>
       <c r="E44" t="n">
-        <v>301.2995293366826</v>
+        <v>1227.408567626107</v>
       </c>
       <c r="F44" t="n">
-        <v>301.2995293366826</v>
+        <v>802.2843858155068</v>
       </c>
       <c r="G44" t="n">
-        <v>301.2995293366826</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>417.0520770886785</v>
+        <v>415.4757434162575</v>
       </c>
       <c r="K44" t="n">
-        <v>1090.853728201993</v>
+        <v>1130.984051391757</v>
       </c>
       <c r="L44" t="n">
-        <v>1090.853728201993</v>
+        <v>2060.609099011033</v>
       </c>
       <c r="M44" t="n">
-        <v>1090.853728201993</v>
+        <v>3064.895200430092</v>
       </c>
       <c r="N44" t="n">
-        <v>1090.853728201993</v>
+        <v>4041.146258916793</v>
       </c>
       <c r="O44" t="n">
-        <v>1474.987448089748</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="P44" t="n">
-        <v>2148.789099203062</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="Q44" t="n">
-        <v>2604.874578707245</v>
+        <v>4886.290909067605</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>5003.847243949507</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.430913589148</v>
+        <v>4973.6457363812</v>
       </c>
       <c r="T44" t="n">
-        <v>2722.430913589148</v>
+        <v>4752.720165425832</v>
       </c>
       <c r="U44" t="n">
-        <v>2722.430913589148</v>
+        <v>4494.365256022244</v>
       </c>
       <c r="V44" t="n">
-        <v>2364.941498715398</v>
+        <v>4136.875841148494</v>
       </c>
       <c r="W44" t="n">
-        <v>1968.550149015745</v>
+        <v>3740.484491448841</v>
       </c>
       <c r="X44" t="n">
-        <v>1556.830150183492</v>
+        <v>3328.764492616588</v>
       </c>
       <c r="Y44" t="n">
-        <v>1151.492880138382</v>
+        <v>2923.427222571479</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>445.8545739432352</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>341.1526402161724</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>61.8952612336948</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>333.5927505132859</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>333.5927505132859</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>333.5927505132859</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>333.5927505132859</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N45" t="n">
-        <v>515.5329466256644</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O45" t="n">
-        <v>1189.334597738979</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>392.6293872400134</v>
+        <v>371.1946237414811</v>
       </c>
       <c r="C46" t="n">
-        <v>220.6568241189294</v>
+        <v>266.333914584758</v>
       </c>
       <c r="D46" t="n">
-        <v>220.6568241189294</v>
+        <v>266.333914584758</v>
       </c>
       <c r="E46" t="n">
-        <v>54.44861827178296</v>
+        <v>266.333914584758</v>
       </c>
       <c r="F46" t="n">
-        <v>54.44861827178296</v>
+        <v>266.333914584758</v>
       </c>
       <c r="G46" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>157.5682731031482</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>738.7851956034061</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2153.489842051357</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="R46" t="n">
-        <v>2187.823032372085</v>
+        <v>2280.489972292119</v>
       </c>
       <c r="S46" t="n">
-        <v>2017.687984891219</v>
+        <v>2110.354924811254</v>
       </c>
       <c r="T46" t="n">
-        <v>1774.348637117119</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U46" t="n">
-        <v>1494.164188617424</v>
+        <v>1586.831128537458</v>
       </c>
       <c r="V46" t="n">
-        <v>1212.452721225452</v>
+        <v>1305.119661145487</v>
       </c>
       <c r="W46" t="n">
-        <v>937.6003173979655</v>
+        <v>1030.267257318</v>
       </c>
       <c r="X46" t="n">
-        <v>809.138124262337</v>
+        <v>787.7033607638047</v>
       </c>
       <c r="Y46" t="n">
-        <v>582.795355952079</v>
+        <v>561.3605924535467</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>569.5185628754297</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>594.5398555482169</v>
       </c>
       <c r="M2" t="n">
-        <v>111.1035129916911</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,28 +8060,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489274</v>
       </c>
       <c r="L3" t="n">
-        <v>488.256832526231</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>185.9167539104605</v>
       </c>
       <c r="N3" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K5" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>572.0660045132432</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N5" t="n">
-        <v>690.388049074267</v>
+        <v>593.5074359500401</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>593.6187724716181</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>425.4729846664901</v>
+        <v>542.3310383704943</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
@@ -8307,10 +8309,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204227</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>103.0922095778457</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150258</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876112</v>
       </c>
       <c r="P8" t="n">
-        <v>718.1830902075183</v>
+        <v>593.8031749258253</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8532,19 +8534,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>180.6729970931269</v>
       </c>
       <c r="L9" t="n">
-        <v>488.256832526231</v>
+        <v>578.7428998298236</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>579.324593627922</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378162</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
@@ -8690,22 +8692,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>570.1292544266475</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>655.0126980493288</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
@@ -8769,16 +8771,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1409796453348</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>749.7358553685298</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
@@ -8930,19 +8932,19 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>425.4451213719119</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>717.8873512317331</v>
+        <v>522.319973865215</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9003,7 +9005,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>22.39923383333334</v>
@@ -9012,13 +9014,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>475.2939470053064</v>
       </c>
       <c r="N15" t="n">
-        <v>487.0847740255431</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9164,10 +9166,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>590.5593685239227</v>
       </c>
       <c r="L17" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9182,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,28 +9242,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>295.0530226965566</v>
+        <v>58.85304373827448</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9413,16 +9415,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>611.6066190166146</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,16 +9485,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>659.3662058264945</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>97.06111056123879</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,28 +9719,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9881,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9962,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10127,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10194,19 +10196,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>105.0107851302144</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10352,10 +10354,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>878.1144544646206</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>37.43126289943181</v>
+        <v>995.9774475394107</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10370,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10430,22 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O33" t="n">
-        <v>530.2476341400729</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>466.3243076206841</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10674,10 +10676,10 @@
         <v>1089.749849175</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O36" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10823,7 +10825,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
         <v>977.3272420480539</v>
@@ -10838,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>594.9991853972081</v>
       </c>
       <c r="M41" t="n">
-        <v>229.8472855996736</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
         <v>496.8170781441769</v>
@@ -11139,19 +11141,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>153.3615438023233</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>395.6860795026527</v>
+        <v>348.0046044727252</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
-        <v>425.4048178285041</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
@@ -11385,13 +11387,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>205.1210040846311</v>
+        <v>949.8342934347921</v>
       </c>
       <c r="O45" t="n">
-        <v>703.7796181195092</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>702.3785696021157</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23261,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>73.42412869296655</v>
       </c>
       <c r="I11" t="n">
-        <v>3.950754543446898</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23314,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23461,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>167.2483648293825</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>20.33473331241822</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>107.9720312369302</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23653,16 +23655,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>99.25824658694683</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -23896,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23941,10 +23943,10 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>65.23940003763292</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>116.9973198203193</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>117.2205539080144</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>27.77629167420079</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>22.1301998828649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>28.86523609070969</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24886,16 +24888,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>165.2116180018443</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>153.473969538659</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.098167740202</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.79471755090449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25599,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>115.7088052046575</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25628,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>17.30525039476061</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>73.42412869296655</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>65.23940003763292</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>233.6730970436892</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,16 +25873,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>50.50729278645494</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>73.42412869296653</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26023,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>66.44073542471735</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>708219.9750713565</v>
+        <v>704299.7211597224</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>708219.9750713565</v>
+        <v>704299.7211597224</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>708219.9750713565</v>
+        <v>704299.7211597224</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>472244.717202227</v>
+        <v>692838.7496260186</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>472244.717202227</v>
+        <v>692838.7496260183</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>703599.4172000006</v>
+        <v>703599.4172000007</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>703599.4172000006</v>
+        <v>703599.4172000007</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>703599.4172000006</v>
+        <v>703599.4172000007</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>703599.4172000008</v>
+        <v>703599.4172000006</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>472244.7172022271</v>
+        <v>692838.7496260186</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>472244.7172022272</v>
+        <v>692838.7496260186</v>
       </c>
     </row>
   </sheetData>
@@ -26314,22 +26316,22 @@
         <v>349465.6008066979</v>
       </c>
       <c r="C2" t="n">
-        <v>349465.6008066979</v>
+        <v>349465.6008066978</v>
       </c>
       <c r="D2" t="n">
         <v>349465.6008066978</v>
       </c>
       <c r="E2" t="n">
-        <v>226348.0749619346</v>
+        <v>332061.4976705926</v>
       </c>
       <c r="F2" t="n">
-        <v>226348.0749619346</v>
+        <v>332061.4976705926</v>
       </c>
       <c r="G2" t="n">
+        <v>337218.2418824684</v>
+      </c>
+      <c r="H2" t="n">
         <v>337218.2418824685</v>
-      </c>
-      <c r="H2" t="n">
-        <v>337218.2418824686</v>
       </c>
       <c r="I2" t="n">
         <v>337218.2418824685</v>
@@ -26350,10 +26352,10 @@
         <v>337218.2418824685</v>
       </c>
       <c r="O2" t="n">
-        <v>226348.0749619346</v>
+        <v>332061.4976705926</v>
       </c>
       <c r="P2" t="n">
-        <v>226348.0749619346</v>
+        <v>332061.4976705927</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>207432.2876165611</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>7625.622083481251</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>173130.4912056397</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156047.2142134704</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="C4" t="n">
-        <v>156047.2142134704</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
-        <v>156047.2142134704</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
-        <v>38928.16391746106</v>
+        <v>57174.45239980776</v>
       </c>
       <c r="F4" t="n">
-        <v>38928.16391746106</v>
+        <v>57174.45239980775</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="H4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="I4" t="n">
+        <v>58064.51385187964</v>
+      </c>
+      <c r="J4" t="n">
         <v>58064.51385187963</v>
       </c>
-      <c r="J4" t="n">
-        <v>58064.51385187964</v>
-      </c>
       <c r="K4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="L4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187962</v>
       </c>
       <c r="M4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="O4" t="n">
-        <v>38928.16391746106</v>
+        <v>57174.45239980775</v>
       </c>
       <c r="P4" t="n">
-        <v>38928.16391746106</v>
+        <v>57174.45239980775</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742811</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>76058.4781080325</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109677.4670570116</v>
+        <v>-78383.78592464526</v>
       </c>
       <c r="C6" t="n">
-        <v>118409.8367066724</v>
+        <v>108020.9474900919</v>
       </c>
       <c r="D6" t="n">
-        <v>118409.8367066723</v>
+        <v>108020.9474900919</v>
       </c>
       <c r="E6" t="n">
-        <v>146038.9611579185</v>
+        <v>-8603.720453808768</v>
       </c>
       <c r="F6" t="n">
-        <v>146038.9611579184</v>
+        <v>198828.5671627523</v>
       </c>
       <c r="G6" t="n">
-        <v>37452.54503197313</v>
+        <v>193778.0437586779</v>
       </c>
       <c r="H6" t="n">
         <v>201403.6658421592</v>
       </c>
       <c r="I6" t="n">
-        <v>201403.6658421591</v>
+        <v>201403.6658421592</v>
       </c>
       <c r="J6" t="n">
-        <v>23326.73735337934</v>
+        <v>55869.99590734267</v>
       </c>
       <c r="K6" t="n">
         <v>201403.6658421592</v>
@@ -26552,16 +26554,16 @@
         <v>201403.6658421591</v>
       </c>
       <c r="M6" t="n">
-        <v>201403.6658421591</v>
+        <v>28273.17463651948</v>
       </c>
       <c r="N6" t="n">
         <v>201403.6658421592</v>
       </c>
       <c r="O6" t="n">
-        <v>146038.9611579185</v>
+        <v>198828.5671627524</v>
       </c>
       <c r="P6" t="n">
-        <v>146038.9611579185</v>
+        <v>198828.5671627524</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>1250.961810987377</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>694.7339978717827</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658547987</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>694.7339978717827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>27.82210658547987</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,19 +27387,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>248.7011634708883</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>47.50789120237636</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>162.079321610584</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>90.77286840263272</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>256.2737272682317</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5.882414251447528</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27667,22 +27669,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27830,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>143.2141170731778</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>165.9413715140469</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.51246021184409</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>331.3947386960825</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>10.25598037821507</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>116.4765019123679</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -30289,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30447,7 +30449,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M2" t="n">
-        <v>73.67225009225932</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="L3" t="n">
-        <v>465.7417458120015</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>162.8199733981326</v>
       </c>
       <c r="N3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>533.7539620806203</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N5" t="n">
-        <v>653.1084262398209</v>
+        <v>556.227813115594</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>403.0737508331568</v>
+        <v>519.9318045371609</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.67225009225919</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>144.2794790315871</v>
       </c>
       <c r="P8" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>158.2737632597936</v>
       </c>
       <c r="L9" t="n">
-        <v>465.7417458120015</v>
+        <v>556.227813115594</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>556.227813115594</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>556.227813115594</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35410,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>534.3646536318382</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>617.5814351498971</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35650,19 +35652,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>388.0138584724801</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>680.607728397287</v>
+        <v>485.040351030769</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,13 +35734,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>452.1971664929785</v>
       </c>
       <c r="N15" t="n">
-        <v>465.7417458120015</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35884,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>554.7947677291133</v>
       </c>
       <c r="L17" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35902,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4419083632233</v>
+        <v>38.24192940494115</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36133,16 +36135,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>574.2156596605904</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,16 +36205,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>636.2694253141665</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>75.71808234769713</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36601,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36847,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>83.23994392538575</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37072,10 +37074,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>839.8024120319977</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>958.5461846399789</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37090,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O33" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>428.7489458104528</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,10 +37396,10 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37543,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
         <v>939.015199615431</v>
@@ -37558,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>556.6871429645852</v>
       </c>
       <c r="M41" t="n">
-        <v>192.4160227002418</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
         <v>460.6924035395789</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>130.1896540801011</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>366.2661200170662</v>
+        <v>318.5846449871387</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
-        <v>388.01385847248</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38105,13 +38107,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>183.7779758710894</v>
+        <v>928.4912652212505</v>
       </c>
       <c r="O45" t="n">
-        <v>680.607728397287</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>972542.2368228117</v>
+        <v>971824.2467079527</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602536</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.6830760717</v>
+        <v>698313.6830760741</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -673,10 +673,10 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>103.4488356343272</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
@@ -727,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>353.7760061422822</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>51.58543740429442</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>111.07037802274</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>414.9905257410462</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>120.3531952773279</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1071,10 +1071,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>76.34947650093977</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>106.1625082751652</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>91.23698399075032</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>165.7753528063594</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
@@ -1299,19 +1299,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>159.8871761049701</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>313.7451392166883</v>
       </c>
       <c r="F11" t="n">
         <v>420.8729399924937</v>
@@ -1387,10 +1387,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>221.465566047739</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>79.68036568810925</v>
       </c>
       <c r="U13" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>72.88989275927041</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>110.744284008883</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>293.3118661077256</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>70.99459090292632</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="18">
@@ -2007,16 +2007,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>107.082020806836</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458135</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2241,19 +2241,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>57.29215110549234</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>96.44420510686395</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2484,19 +2484,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>33.30824845179895</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>218.7757544134941</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2718,22 +2718,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>248.5173679239891</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -3192,16 +3192,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>8.209635605837954</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.16614128474295</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>326.8715430934767</v>
       </c>
       <c r="H41" t="n">
-        <v>221.465566047739</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,10 +3957,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>45.2212556743622</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>110.889516011437</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
@@ -3997,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>29.89949249262446</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4137,19 +4137,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>103.8121020651558</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>55.47301062167552</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>427.7981182481856</v>
+        <v>234.1248547200804</v>
       </c>
       <c r="C2" t="n">
-        <v>404.9377923018898</v>
+        <v>211.2645287737846</v>
       </c>
       <c r="D2" t="n">
-        <v>385.6855755272941</v>
+        <v>192.0123119991889</v>
       </c>
       <c r="E2" t="n">
-        <v>363.7490397155557</v>
+        <v>170.0757761874505</v>
       </c>
       <c r="F2" t="n">
-        <v>342.66526194536</v>
+        <v>148.9919984172548</v>
       </c>
       <c r="G2" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924752</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K2" t="n">
-        <v>572.9146475090616</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L2" t="n">
-        <v>1123.5801824935</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M2" t="n">
-        <v>1674.245717477938</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O2" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462376</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1966.556343058788</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.066928185038</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W2" t="n">
-        <v>1212.675578485385</v>
+        <v>1471.030487888973</v>
       </c>
       <c r="X2" t="n">
-        <v>800.955579653132</v>
+        <v>1059.31048905672</v>
       </c>
       <c r="Y2" t="n">
-        <v>443.6060784993115</v>
+        <v>653.9732190116105</v>
       </c>
     </row>
     <row r="3">
@@ -4397,34 +4397,34 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336855</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L3" t="n">
-        <v>1145.829295018124</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M3" t="n">
-        <v>1307.021068682275</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N3" t="n">
-        <v>1307.021068682275</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O3" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P3" t="n">
         <v>1307.021068682275</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.5772905989117</v>
+        <v>382.7277578760994</v>
       </c>
       <c r="C4" t="n">
-        <v>96.60472747782771</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="D4" t="n">
-        <v>96.60472747782771</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="E4" t="n">
-        <v>96.60472747782771</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="F4" t="n">
-        <v>96.60472747782771</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G4" t="n">
-        <v>96.60472747782771</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H4" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924748</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2007.737591668684</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1764.398243894584</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1484.213795394888</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1202.502328002917</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>927.6499241754302</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>685.0860276212353</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.7432593109774</v>
+        <v>572.893726588165</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>562.9251824419335</v>
+        <v>988.0056192934842</v>
       </c>
       <c r="C5" t="n">
-        <v>540.0648564956377</v>
+        <v>965.1452933471884</v>
       </c>
       <c r="D5" t="n">
-        <v>520.812639721042</v>
+        <v>541.8526725321886</v>
       </c>
       <c r="E5" t="n">
-        <v>498.8761039093037</v>
+        <v>519.9161367204503</v>
       </c>
       <c r="F5" t="n">
-        <v>79.69375467592363</v>
+        <v>498.8323589502546</v>
       </c>
       <c r="G5" t="n">
-        <v>79.39509630577632</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>44.49822504924752</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>44.49822504924752</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>572.9146475090616</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M5" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>2224.911252462376</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2224.911252462376</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462376</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.985681507009</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1745.630772103422</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1388.141357229671</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>991.7500075300179</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X5" t="n">
-        <v>580.0300086977652</v>
+        <v>1813.191253630124</v>
       </c>
       <c r="Y5" t="n">
-        <v>578.7331426930596</v>
+        <v>1407.853983585014</v>
       </c>
     </row>
     <row r="6">
@@ -4634,37 +4634,37 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115936</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>323.6423572907505</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>838.3748437825399</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>838.3748437825399</v>
+        <v>201.1892506764427</v>
       </c>
       <c r="M6" t="n">
-        <v>838.3748437825399</v>
+        <v>751.8547856608809</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825399</v>
+        <v>1302.520320645319</v>
       </c>
       <c r="O6" t="n">
-        <v>838.3748437825399</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="Q6" t="n">
         <v>1853.185855629757</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>717.9063049747683</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>545.9337418536843</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>382.616968980455</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>382.616968980455</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
-        <v>210.7551947550154</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>44.49822504924752</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
         <v>101.9895532734055</v>
@@ -4752,25 +4752,25 @@
         <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894584</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U7" t="n">
-        <v>1484.213795394888</v>
+        <v>2100.751955815266</v>
       </c>
       <c r="V7" t="n">
-        <v>1484.213795394888</v>
+        <v>1819.040488423295</v>
       </c>
       <c r="W7" t="n">
-        <v>1376.978938551287</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="X7" t="n">
-        <v>1134.415041997092</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>908.072273686834</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1446.246066841292</v>
+        <v>275.443055230037</v>
       </c>
       <c r="C8" t="n">
-        <v>1354.087497153665</v>
+        <v>252.5827292837411</v>
       </c>
       <c r="D8" t="n">
-        <v>930.7948763386659</v>
+        <v>233.3305125091455</v>
       </c>
       <c r="E8" t="n">
-        <v>908.8583405269275</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>483.7341587163277</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
-        <v>407.101683866143</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M8" t="n">
-        <v>957.7672188505811</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505811</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="O8" t="n">
-        <v>1100.603903091852</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="P8" t="n">
-        <v>1651.26943807629</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580473</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R8" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462376</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462376</v>
+        <v>1862.189048931929</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588626</v>
+        <v>1504.699634058179</v>
       </c>
       <c r="W8" t="n">
-        <v>1471.030487888972</v>
+        <v>1108.308284358525</v>
       </c>
       <c r="X8" t="n">
-        <v>1463.350893097124</v>
+        <v>1100.628689566677</v>
       </c>
       <c r="Y8" t="n">
-        <v>1462.054027092418</v>
+        <v>695.291419521567</v>
       </c>
     </row>
     <row r="9">
@@ -4871,40 +4871,40 @@
         <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>191.9280900693339</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>97.87431828693794</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924752</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>201.1892506764432</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="L9" t="n">
-        <v>751.8547856608812</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="M9" t="n">
-        <v>1302.520320645319</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="N9" t="n">
-        <v>1302.520320645319</v>
+        <v>602.6104029955975</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.0860276212348</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>513.1134645001508</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>349.7966916269215</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>349.7966916269215</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>188.2944935410931</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924752</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>44.49822504924752</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
         <v>101.9895532734055</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="T10" t="n">
-        <v>1764.398243894584</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="U10" t="n">
-        <v>1484.213795394888</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="V10" t="n">
-        <v>1202.502328002917</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>927.6499241754298</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>685.0860276212348</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>685.0860276212348</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2429.413071721397</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C11" t="n">
-        <v>2002.512341734697</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.219720919697</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E11" t="n">
-        <v>1153.242781067554</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>728.1185992569547</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>323.7795368464033</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
         <v>100.0769448789901</v>
@@ -5044,49 +5044,49 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K11" t="n">
-        <v>815.5852528544892</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L11" t="n">
-        <v>1745.210300473766</v>
+        <v>1029.701992498267</v>
       </c>
       <c r="M11" t="n">
-        <v>2356.615921272164</v>
+        <v>2033.988093917325</v>
       </c>
       <c r="N11" t="n">
-        <v>3332.866979758865</v>
+        <v>3010.239152404026</v>
       </c>
       <c r="O11" t="n">
-        <v>4178.011629909677</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P11" t="n">
-        <v>4886.290909067605</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q11" t="n">
-        <v>4886.290909067605</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R11" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.55437886728</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.199469463692</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589942</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>3666.318704890289</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X11" t="n">
-        <v>3254.598706058036</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y11" t="n">
-        <v>2849.261436012927</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="12">
@@ -5102,10 +5102,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
         <v>247.5068098990765</v>
@@ -5117,22 +5117,22 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J12" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K12" t="n">
-        <v>100.0769448789901</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="L12" t="n">
-        <v>100.0769448789901</v>
+        <v>1534.807322492148</v>
       </c>
       <c r="M12" t="n">
-        <v>819.4496289866299</v>
+        <v>1534.807322492148</v>
       </c>
       <c r="N12" t="n">
-        <v>1908.7645754595</v>
+        <v>1534.807322492148</v>
       </c>
       <c r="O12" t="n">
         <v>1908.7645754595</v>
@@ -5193,19 +5193,19 @@
         <v>343.6417816305598</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387142</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
         <v>1129.970990573657</v>
@@ -5217,28 +5217,28 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979292</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498427</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>2063.316311498427</v>
+        <v>1982.831093631649</v>
       </c>
       <c r="U13" t="n">
-        <v>1783.131862998731</v>
+        <v>1702.646645131954</v>
       </c>
       <c r="V13" t="n">
-        <v>1501.42039560676</v>
+        <v>1702.646645131954</v>
       </c>
       <c r="W13" t="n">
-        <v>1501.42039560676</v>
+        <v>1427.794241304467</v>
       </c>
       <c r="X13" t="n">
         <v>1427.794241304467</v>
@@ -5278,49 +5278,49 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>462.6804036958857</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958857</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L14" t="n">
-        <v>1392.305451315162</v>
+        <v>896.2443403489199</v>
       </c>
       <c r="M14" t="n">
-        <v>2396.59155273422</v>
+        <v>1900.530441767978</v>
       </c>
       <c r="N14" t="n">
-        <v>2876.781500254682</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
-        <v>3721.926150405494</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>4430.205429563422</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>4886.290909067605</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4787.617036682362</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>4529.262127278774</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>4171.772712405023</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>3775.38136270537</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.661363873117</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
         <v>2958.324093828008</v>
@@ -5339,10 +5339,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
         <v>247.5068098990765</v>
@@ -5354,25 +5354,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>371.7744341585812</v>
+        <v>379.221077120493</v>
       </c>
       <c r="K15" t="n">
-        <v>371.7744341585812</v>
+        <v>969.7060036888327</v>
       </c>
       <c r="L15" t="n">
-        <v>371.7744341585812</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="M15" t="n">
-        <v>819.4496289866299</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="N15" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="O15" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P15" t="n">
         <v>1908.7645754595</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.2286440051728</v>
+        <v>443.9112822255137</v>
       </c>
       <c r="C16" t="n">
-        <v>911.5169360224189</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="D16" t="n">
-        <v>748.2001631491896</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="E16" t="n">
-        <v>581.9919573020431</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F16" t="n">
-        <v>410.1301830766036</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
-        <v>243.8732133708357</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
         <v>100.0769448789901</v>
@@ -5436,13 +5436,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
         <v>1129.970990573657</v>
@@ -5454,34 +5454,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979292</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2063.316311498427</v>
+        <v>2183.071583295286</v>
       </c>
       <c r="T16" t="n">
-        <v>1819.976963724327</v>
+        <v>1939.732235521186</v>
       </c>
       <c r="U16" t="n">
-        <v>1539.792515224631</v>
+        <v>1659.54778702149</v>
       </c>
       <c r="V16" t="n">
-        <v>1258.08104783266</v>
+        <v>1377.836319629519</v>
       </c>
       <c r="W16" t="n">
-        <v>983.2286440051728</v>
+        <v>1102.983915802032</v>
       </c>
       <c r="X16" t="n">
-        <v>983.2286440051728</v>
+        <v>860.4200192478372</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.2286440051728</v>
+        <v>634.0772509375793</v>
       </c>
     </row>
     <row r="17">
@@ -5506,7 +5506,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5518,43 +5518,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K17" t="n">
-        <v>651.5495334576507</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L17" t="n">
-        <v>1581.174581076927</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M17" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N17" t="n">
-        <v>3561.711740982686</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.856391133499</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>3344.30754982181</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>3934.792476390149</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>3934.792476390149</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>3934.792476390149</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>3934.792476390149</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>3934.792476390149</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>4650.990193428647</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>941.9189991784957</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C19" t="n">
-        <v>769.9464360574117</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D19" t="n">
-        <v>606.6296631841824</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E19" t="n">
-        <v>440.4214573370359</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U19" t="n">
-        <v>2039.376393044857</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V19" t="n">
-        <v>1757.664925652886</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>1482.812521825399</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X19" t="n">
-        <v>1240.248625271204</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y19" t="n">
-        <v>1132.084967890561</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,19 +5740,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5767,22 +5767,22 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4659.050190787243</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="P20" t="n">
-        <v>4659.050190787243</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5831,28 +5831,28 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>109.7493563677404</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>946.5481644506465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>946.5481644506465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1021.509065974867</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>326.3817789554925</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C22" t="n">
-        <v>268.510919252975</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D22" t="n">
-        <v>268.510919252975</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F22" t="n">
-        <v>102.3027134058285</v>
+        <v>199.7211024026608</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2129.375202991803</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409524</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
         <v>1364.825557038856</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402535</v>
+        <v>786.8947875232845</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281451</v>
+        <v>614.9222244022005</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408221</v>
+        <v>451.6054515289712</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561075</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335635</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629867</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497734</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>4676.976398979054</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>4676.976398979054</v>
+        <v>2002.531292319261</v>
       </c>
       <c r="V25" t="n">
-        <v>4676.976398979054</v>
+        <v>1720.81982492729</v>
       </c>
       <c r="W25" t="n">
-        <v>4676.976398979054</v>
+        <v>1445.967421099803</v>
       </c>
       <c r="X25" t="n">
-        <v>4434.412502424859</v>
+        <v>1203.403524545608</v>
       </c>
       <c r="Y25" t="n">
-        <v>4208.069734114601</v>
+        <v>977.0607562353503</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,19 +6214,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
         <v>1180.414480198223</v>
@@ -6235,28 +6235,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747413</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905341</v>
+        <v>4798.855966881186</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4017.903765402535</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>3845.931202281451</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>3682.614429408221</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I28" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M28" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N28" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O28" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P28" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>4945.000622810561</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>4701.661275036461</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>4450.633630668795</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>4450.633630668795</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>4450.633630668795</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>4208.069734114601</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>4208.069734114601</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6481,19 +6481,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6548,19 +6548,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L30" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1828.582799500206</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2129.375202991802</v>
+        <v>2856.963518260713</v>
       </c>
       <c r="N32" t="n">
-        <v>3105.626261478503</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="O32" t="n">
-        <v>3950.770911629315</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4659.050190787243</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6788,19 +6788,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>786.8947875232845</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>614.9222244022005</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>606.6296631841824</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>440.4214573370359</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2002.531292319261</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.81982492729</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1445.967421099803</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1203.403524545608</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>977.0607562353503</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,13 +6925,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6955,19 +6955,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7025,16 +7025,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3270.011978872611</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C37" t="n">
-        <v>3098.039415751527</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D37" t="n">
-        <v>2934.722642878298</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E37" t="n">
-        <v>2934.722642878298</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="F37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>4897.962009497734</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>4654.622661723634</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>4374.438213223939</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>4092.726745831968</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>3817.874342004481</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>3575.310445450286</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>3348.967677140028</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,13 +7162,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
@@ -7192,19 +7192,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7262,19 +7262,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3278.556980224821</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>3106.584417103737</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M40" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>5017.717281294594</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>4774.377933520494</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>4494.193485020798</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>4212.482017628827</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>3937.62961380134</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>3695.065717247145</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>3468.722948936887</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2429.413071721397</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2002.512341734697</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1579.219720919697</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1153.242781067554</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
-        <v>728.1185992569547</v>
+        <v>728.1185992569519</v>
       </c>
       <c r="G41" t="n">
-        <v>323.7795368464033</v>
+        <v>397.9453234049553</v>
       </c>
       <c r="H41" t="n">
         <v>100.0769448789901</v>
@@ -7411,52 +7411,52 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>462.6804036958857</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>462.6804036958857</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>1013.800675230825</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2018.086776649883</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>2994.337835136584</v>
+        <v>2994.337835136581</v>
       </c>
       <c r="O41" t="n">
-        <v>3839.482485287396</v>
+        <v>3839.482485287394</v>
       </c>
       <c r="P41" t="n">
-        <v>4547.761764445324</v>
+        <v>4547.761764445321</v>
       </c>
       <c r="Q41" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R41" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>4899.479949822648</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>4678.55437886728</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>4420.199469463692</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>4062.710054589942</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>3666.318704890289</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>3254.598706058036</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>2849.261436012927</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7472,10 +7472,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
         <v>247.5068098990765</v>
@@ -7493,19 +7493,19 @@
         <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>690.5618714473297</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>690.5618714473297</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>690.5618714473297</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="N42" t="n">
-        <v>1779.8768179202</v>
+        <v>303.0855804095302</v>
       </c>
       <c r="O42" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P42" t="n">
         <v>1908.7645754595</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>607.228055098743</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="C43" t="n">
-        <v>435.255491977659</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="D43" t="n">
-        <v>271.9387191044297</v>
+        <v>704.1724629170681</v>
       </c>
       <c r="E43" t="n">
-        <v>271.9387191044297</v>
+        <v>537.9642570699216</v>
       </c>
       <c r="F43" t="n">
-        <v>100.0769448789901</v>
+        <v>366.102482844482</v>
       </c>
       <c r="G43" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="H43" t="n">
-        <v>100.0769448789901</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
         <v>1129.970990573657</v>
@@ -7587,34 +7587,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S43" t="n">
-        <v>2110.354924811254</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T43" t="n">
-        <v>1867.015577037153</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U43" t="n">
-        <v>1586.831128537458</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V43" t="n">
-        <v>1541.153092502748</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W43" t="n">
-        <v>1266.300688675261</v>
+        <v>1363.245096493587</v>
       </c>
       <c r="X43" t="n">
-        <v>1023.736792121067</v>
+        <v>1120.681199939392</v>
       </c>
       <c r="Y43" t="n">
-        <v>797.3940238108087</v>
+        <v>894.3384316291338</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2503.578858279949</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>2076.678128293249</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1653.385507478249</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>1227.408567626107</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>802.2843858155068</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>397.9453234049553</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>100.0769448789901</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
         <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>415.4757434162575</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>1130.984051391757</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>2060.609099011033</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>3064.895200430092</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N44" t="n">
-        <v>4041.146258916793</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>4886.290909067605</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>4886.290909067605</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>4886.290909067605</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>5003.847243949507</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4973.6457363812</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T44" t="n">
-        <v>4752.720165425832</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U44" t="n">
-        <v>4494.365256022244</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>4136.875841148494</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>3740.484491448841</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>3328.764492616588</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2923.427222571479</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7709,10 +7709,10 @@
         <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>445.8545739432352</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>341.1526402161724</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
         <v>247.5068098990765</v>
@@ -7724,28 +7724,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J45" t="n">
-        <v>100.0769448789901</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K45" t="n">
-        <v>100.0769448789901</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="L45" t="n">
-        <v>100.0769448789901</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="M45" t="n">
-        <v>100.0769448789901</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="N45" t="n">
-        <v>1019.283297448028</v>
+        <v>698.0085144092415</v>
       </c>
       <c r="O45" t="n">
-        <v>1908.7645754595</v>
+        <v>728.4213815582225</v>
       </c>
       <c r="P45" t="n">
-        <v>1908.7645754595</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q45" t="n">
         <v>1908.7645754595</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>371.1946237414811</v>
+        <v>438.2577138472205</v>
       </c>
       <c r="C46" t="n">
-        <v>266.333914584758</v>
+        <v>266.2851507261365</v>
       </c>
       <c r="D46" t="n">
-        <v>266.333914584758</v>
+        <v>266.2851507261365</v>
       </c>
       <c r="E46" t="n">
-        <v>266.333914584758</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F46" t="n">
-        <v>266.333914584758</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
         <v>100.0769448789901</v>
@@ -7806,13 +7806,13 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>157.5682731031482</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
         <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>738.7851956034061</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
         <v>1129.970990573657</v>
@@ -7824,34 +7824,34 @@
         <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2153.489842051357</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2280.489972292119</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2280.489972292119</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2110.354924811254</v>
+        <v>2177.418014916993</v>
       </c>
       <c r="T46" t="n">
-        <v>1867.015577037153</v>
+        <v>1934.078667142893</v>
       </c>
       <c r="U46" t="n">
-        <v>1586.831128537458</v>
+        <v>1653.894218643197</v>
       </c>
       <c r="V46" t="n">
-        <v>1305.119661145487</v>
+        <v>1372.182751251226</v>
       </c>
       <c r="W46" t="n">
-        <v>1030.267257318</v>
+        <v>1097.330347423739</v>
       </c>
       <c r="X46" t="n">
-        <v>787.7033607638047</v>
+        <v>854.7664508695441</v>
       </c>
       <c r="Y46" t="n">
-        <v>561.3605924535467</v>
+        <v>628.4236825592861</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K2" t="n">
-        <v>569.5185628754297</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.5398555482169</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>593.6187724716181</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8054,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489274</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>185.9167539104605</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>176.6411400339851</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
         <v>491.5808533018869</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>572.0660045132432</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>593.5074359500401</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716181</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>542.3310383704943</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>180.7888499740227</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204227</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
         <v>23.67291939414415</v>
@@ -8455,22 +8455,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150258</v>
+        <v>181.710741931019</v>
       </c>
       <c r="N8" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>181.6704383876112</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258253</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>496.8170781441769</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>180.6729970931269</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298236</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.324593627922</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378162</v>
+        <v>178.4700015426657</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,28 +8692,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>655.0126980493288</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>875.010487521042</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,25 +8765,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>749.7358553685298</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>400.9064886791435</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>842.5215328062894</v>
       </c>
       <c r="M14" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>522.319973865215</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -9002,28 +9002,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911681</v>
       </c>
       <c r="M15" t="n">
-        <v>475.2939470053064</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9166,10 +9166,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>590.5593685239227</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>58.85304373827448</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
         <v>618.848654609434</v>
@@ -9260,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>611.6066190166146</v>
+        <v>611.6066190166155</v>
       </c>
       <c r="P20" t="n">
         <v>37.5753618102313</v>
@@ -9479,31 +9479,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>97.06111056123879</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792398087</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.3243076206841</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>618.848654609434</v>
@@ -9734,7 +9734,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>700.5970200580485</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9883,22 +9883,22 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>924.1790155406089</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P26" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>355.5991224937308</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,25 +9950,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>951.5880457335786</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -9977,7 +9977,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.3243076206841</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10196,7 +10196,7 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
         <v>23.09678051232798</v>
@@ -10205,13 +10205,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P30" t="n">
-        <v>105.0107851302144</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10354,16 +10354,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>995.9774475394107</v>
+        <v>791.8999401147988</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
@@ -10372,7 +10372,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10436,22 +10436,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>575.0154519389184</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10603,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>466.3243076206841</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10673,19 +10673,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
@@ -10910,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>398.5805034488242</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,16 +11062,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>594.9991853972081</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>932.7584873252742</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11141,7 +11141,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11150,13 +11150,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O42" t="n">
-        <v>153.3615438023233</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
         <v>22.7470382889785</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>348.0046044727252</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>758.5002654165255</v>
@@ -11305,19 +11305,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11387,16 +11387,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>949.8342934347921</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>53.89195754947579</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>73.42412869296655</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>161.2255886082498</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>167.2483648293825</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>107.9720312369302</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>99.25824658694683</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>116.9973198203193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>68.15019490184623</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>131.237875336876</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>22.1301998828649</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>28.86523609070969</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -25080,16 +25080,16 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>153.473969538659</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25125,10 +25125,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.098167740202</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>118.557719078891</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>73.42412869296913</v>
       </c>
       <c r="H41" t="n">
-        <v>73.42412869296655</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>233.6730970436892</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>161.2143637777751</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>73.42412869296653</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>66.44073542471735</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>112.960686384381</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>692838.7496260186</v>
+        <v>692838.7496260183</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>692838.7496260183</v>
+        <v>692838.7496260182</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>703599.4172000007</v>
+        <v>703599.4172000006</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>703599.4172000006</v>
+        <v>703599.4172000007</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>703599.4172000007</v>
+        <v>703599.4172000006</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>703599.4172000007</v>
+        <v>703599.4172000005</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>692838.7496260186</v>
+        <v>692838.7496260183</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>692838.7496260186</v>
+        <v>692838.7496260182</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>349465.600806698</v>
+      </c>
+      <c r="C2" t="n">
         <v>349465.6008066979</v>
       </c>
-      <c r="C2" t="n">
-        <v>349465.6008066978</v>
-      </c>
       <c r="D2" t="n">
-        <v>349465.6008066978</v>
+        <v>349465.6008066979</v>
       </c>
       <c r="E2" t="n">
-        <v>332061.4976705926</v>
+        <v>332061.4976705925</v>
       </c>
       <c r="F2" t="n">
-        <v>332061.4976705926</v>
+        <v>332061.4976705924</v>
       </c>
       <c r="G2" t="n">
         <v>337218.2418824684</v>
       </c>
       <c r="H2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="I2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="J2" t="n">
-        <v>337218.2418824685</v>
+        <v>337218.2418824684</v>
       </c>
       <c r="K2" t="n">
         <v>337218.2418824685</v>
       </c>
       <c r="L2" t="n">
-        <v>337218.2418824684</v>
+        <v>337218.2418824683</v>
       </c>
       <c r="M2" t="n">
         <v>337218.2418824685</v>
@@ -26352,10 +26352,10 @@
         <v>337218.2418824685</v>
       </c>
       <c r="O2" t="n">
+        <v>332061.4976705924</v>
+      </c>
+      <c r="P2" t="n">
         <v>332061.4976705926</v>
-      </c>
-      <c r="P2" t="n">
-        <v>332061.4976705927</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>207432.2876165611</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7625.622083481251</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>173130.4912056397</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>173998.4022791778</v>
       </c>
       <c r="C4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="D4" t="n">
         <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
-        <v>57174.45239980776</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="F4" t="n">
-        <v>57174.45239980775</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
         <v>58064.51385187964</v>
@@ -26441,25 +26441,25 @@
         <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="K4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="L4" t="n">
-        <v>58064.51385187962</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>57174.45239980775</v>
+        <v>57174.45239980773</v>
       </c>
       <c r="P4" t="n">
-        <v>57174.45239980775</v>
+        <v>57174.45239980773</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>67446.25103742811</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>76058.4781080325</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78383.78592464526</v>
+        <v>-78383.7859246452</v>
       </c>
       <c r="C6" t="n">
         <v>108020.9474900919</v>
       </c>
       <c r="D6" t="n">
-        <v>108020.9474900919</v>
+        <v>108020.947490092</v>
       </c>
       <c r="E6" t="n">
-        <v>-8603.720453808768</v>
+        <v>-8676.237550209062</v>
       </c>
       <c r="F6" t="n">
-        <v>198828.5671627523</v>
+        <v>198756.0500663517</v>
       </c>
       <c r="G6" t="n">
-        <v>193778.0437586779</v>
+        <v>193727.0130964933</v>
       </c>
       <c r="H6" t="n">
-        <v>201403.6658421592</v>
+        <v>201352.6351799748</v>
       </c>
       <c r="I6" t="n">
-        <v>201403.6658421592</v>
+        <v>201352.6351799748</v>
       </c>
       <c r="J6" t="n">
-        <v>55869.99590734267</v>
+        <v>55818.96524515825</v>
       </c>
       <c r="K6" t="n">
-        <v>201403.6658421592</v>
+        <v>201352.6351799748</v>
       </c>
       <c r="L6" t="n">
-        <v>201403.6658421591</v>
+        <v>201352.6351799747</v>
       </c>
       <c r="M6" t="n">
-        <v>28273.17463651948</v>
+        <v>28222.14397433534</v>
       </c>
       <c r="N6" t="n">
-        <v>201403.6658421592</v>
+        <v>201352.6351799748</v>
       </c>
       <c r="O6" t="n">
-        <v>198828.5671627524</v>
+        <v>198756.0500663518</v>
       </c>
       <c r="P6" t="n">
-        <v>198828.5671627524</v>
+        <v>198756.0500663519</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>1250.961810987377</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>694.7339978717827</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.82210658547987</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717827</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>694.7339978717827</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.82210658547987</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>296.8468361521186</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -27435,7 +27435,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>47.50789120237636</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,10 +27551,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>90.77286840263272</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>113.0089626044153</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>5.882414251447528</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>279.9424765091179</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>201.033127513759</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>165.9413715140469</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>331.3947386960825</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
+        <v>255.9418176472616</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>10.25598037821507</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K2" t="n">
-        <v>533.7539620806203</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M2" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>556.227813115594</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34774,28 +34774,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>162.8199733981326</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
         <v>468.8338150129084</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>533.7539620806203</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>556.227813115594</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O5" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>519.9318045371609</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>158.2737632597931</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>556.227813115594</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>144.2794790315871</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>460.6924035395789</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.2737632597936</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.227813115594</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>556.227813115594</v>
+        <v>155.2981118204435</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>617.5814351498971</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>837.6195281650179</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>377.7345989569213</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>804.2094903736665</v>
       </c>
       <c r="M14" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>485.040351030769</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>225.1119744769386</v>
       </c>
       <c r="M15" t="n">
-        <v>452.1971664929785</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>554.7947677291133</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35904,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>38.24192940494115</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
         <v>596.4494207761006</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>574.2156596605904</v>
+        <v>574.2156596605913</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>75.71808234769713</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454905</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104528</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>596.4494207761006</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>678.8261788532199</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36603,22 +36603,22 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>886.8993927061629</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>319.4744478891327</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>928.4912652212506</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104528</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,13 +36925,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P30" t="n">
-        <v>83.23994392538575</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>958.5461846399789</v>
+        <v>754.4686772153671</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>715.433615311038</v>
@@ -37092,7 +37092,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37323,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>428.7489458104528</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>376.8096622439955</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>556.6871429645852</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>895.4788644908282</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>205.0592278086263</v>
       </c>
       <c r="O42" t="n">
-        <v>130.1896540801011</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>318.5846449871387</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>722.7356646217162</v>
@@ -38025,19 +38025,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>928.4912652212505</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
